--- a/docs/assets/assets/afl_fixtures_2026.xlsx
+++ b/docs/assets/assets/afl_fixtures_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterProjects\my_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206DE31-5ABC-471B-894F-DEFFFB9465B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E659E46-91D1-42A9-AE42-8763BF061A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="25905" windowHeight="20760" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="642">
   <si>
     <t>ROUND</t>
   </si>
@@ -1244,625 +1244,724 @@
     <t>Match ID</t>
   </si>
   <si>
-    <t>https://squiggle.com.au/game/?gid=38494</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38495</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38496</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38497</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38498</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38499</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38500</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38501</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38502</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38503</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38504</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38505</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38506</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38507</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38508</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38509</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38510</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38511</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38512</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38513</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38514</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38515</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38516</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38517</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38518</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38519</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38520</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38521</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38522</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38523</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38524</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38525</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38526</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38527</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38528</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38529</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38530</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38531</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38532</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38533</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38534</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38535</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38536</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38537</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38538</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38539</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38540</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38541</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38542</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38543</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38544</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38545</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38546</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38547</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38548</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38549</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38550</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38551</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38552</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38553</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38554</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38555</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38556</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38557</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38558</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38559</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38560</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38561</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38562</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38563</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38564</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38565</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38566</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38567</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38568</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38569</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38570</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38571</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38572</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38573</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38574</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38575</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38576</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38577</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38578</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38579</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38580</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38581</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38582</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38583</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38584</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38585</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38586</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38587</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38588</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38589</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38590</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38591</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38592</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38593</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38594</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38595</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38596</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38597</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38598</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38599</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38600</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38601</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38602</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38603</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38604</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38605</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38606</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38607</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38608</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38609</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38610</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38611</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38612</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38613</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38614</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38615</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38616</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38617</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38618</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38619</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38620</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38621</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38622</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38623</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38624</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38625</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38626</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38627</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38628</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38629</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38630</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38631</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38632</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38633</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38634</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38635</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38636</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38637</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38638</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38639</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38640</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38641</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38642</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38643</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38644</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38645</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38646</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38647</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38648</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38649</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38650</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38651</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38652</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38653</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38654</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38655</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38656</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38657</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38658</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38659</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38660</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38661</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38662</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38663</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38664</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38665</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38666</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38667</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38668</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38669</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38670</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38671</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38672</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38673</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38674</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38675</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38676</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38677</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38678</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38679</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38680</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38681</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38682</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38683</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38684</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38685</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38686</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38687</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38688</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38689</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38690</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38691</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38692</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38693</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38694</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38695</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38696</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38697</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38698</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38699</t>
-  </si>
-  <si>
-    <t>https://squiggle.com.au/game/?gid=38700</t>
+    <t>Wednesday February 25</t>
+  </si>
+  <si>
+    <t>IKON Park</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8251</t>
+  </si>
+  <si>
+    <t>Thursday February 26</t>
+  </si>
+  <si>
+    <t>Henson Park</t>
+  </si>
+  <si>
+    <t>4.10pm</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8250</t>
+  </si>
+  <si>
+    <t>Brighton Homes Arena</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8252</t>
+  </si>
+  <si>
+    <t>Friday February 27</t>
+  </si>
+  <si>
+    <t>Mars Stadium</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8255</t>
+  </si>
+  <si>
+    <t>Mission Whitten Oval</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8253</t>
+  </si>
+  <si>
+    <t>Saturday February 28</t>
+  </si>
+  <si>
+    <t>3.10pm</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8254</t>
+  </si>
+  <si>
+    <t>Rushton Park</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8256</t>
+  </si>
+  <si>
+    <t>Sunday March 1</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8257</t>
+  </si>
+  <si>
+    <t>Mineral Resources Park</t>
+  </si>
+  <si>
+    <t>https://www.afl.com.au/afl/matches/8258</t>
+  </si>
+  <si>
+    <t>Pre-Season</t>
+  </si>
+  <si>
+    <t>CD_M20260140001</t>
+  </si>
+  <si>
+    <t>CD_M20260140002</t>
+  </si>
+  <si>
+    <t>CD_M20260140003</t>
+  </si>
+  <si>
+    <t>CD_M20260140004</t>
+  </si>
+  <si>
+    <t>CD_M20260140005</t>
+  </si>
+  <si>
+    <t>CD_M20260140101</t>
+  </si>
+  <si>
+    <t>CD_M20260140102</t>
+  </si>
+  <si>
+    <t>CD_M20260140103</t>
+  </si>
+  <si>
+    <t>CD_M20260140104</t>
+  </si>
+  <si>
+    <t>CD_M20260140105</t>
+  </si>
+  <si>
+    <t>CD_M20260140106</t>
+  </si>
+  <si>
+    <t>CD_M20260140107</t>
+  </si>
+  <si>
+    <t>CD_M20260140108</t>
+  </si>
+  <si>
+    <t>CD_M20260140109</t>
+  </si>
+  <si>
+    <t>CD_M20260140201</t>
+  </si>
+  <si>
+    <t>CD_M20260140202</t>
+  </si>
+  <si>
+    <t>CD_M20260140203</t>
+  </si>
+  <si>
+    <t>CD_M20260140204</t>
+  </si>
+  <si>
+    <t>CD_M20260140205</t>
+  </si>
+  <si>
+    <t>CD_M20260140206</t>
+  </si>
+  <si>
+    <t>CD_M20260140207</t>
+  </si>
+  <si>
+    <t>CD_M20260140301</t>
+  </si>
+  <si>
+    <t>CD_M20260140302</t>
+  </si>
+  <si>
+    <t>CD_M20260140303</t>
+  </si>
+  <si>
+    <t>CD_M20260140304</t>
+  </si>
+  <si>
+    <t>CD_M20260140305</t>
+  </si>
+  <si>
+    <t>CD_M20260140306</t>
+  </si>
+  <si>
+    <t>CD_M20260140307</t>
+  </si>
+  <si>
+    <t>CD_M20260140401</t>
+  </si>
+  <si>
+    <t>CD_M20260140402</t>
+  </si>
+  <si>
+    <t>CD_M20260140403</t>
+  </si>
+  <si>
+    <t>CD_M20260140404</t>
+  </si>
+  <si>
+    <t>CD_M20260140405</t>
+  </si>
+  <si>
+    <t>CD_M20260140406</t>
+  </si>
+  <si>
+    <t>CD_M20260140407</t>
+  </si>
+  <si>
+    <t>CD_M20260140408</t>
+  </si>
+  <si>
+    <t>CD_M20260140501</t>
+  </si>
+  <si>
+    <t>CD_M20260140502</t>
+  </si>
+  <si>
+    <t>CD_M20260140503</t>
+  </si>
+  <si>
+    <t>CD_M20260140504</t>
+  </si>
+  <si>
+    <t>CD_M20260140505</t>
+  </si>
+  <si>
+    <t>CD_M20260140506</t>
+  </si>
+  <si>
+    <t>CD_M20260140507</t>
+  </si>
+  <si>
+    <t>CD_M20260140508</t>
+  </si>
+  <si>
+    <t>CD_M20260140509</t>
+  </si>
+  <si>
+    <t>CD_M20260140601</t>
+  </si>
+  <si>
+    <t>CD_M20260140602</t>
+  </si>
+  <si>
+    <t>CD_M20260140603</t>
+  </si>
+  <si>
+    <t>CD_M20260140604</t>
+  </si>
+  <si>
+    <t>CD_M20260140605</t>
+  </si>
+  <si>
+    <t>CD_M20260140606</t>
+  </si>
+  <si>
+    <t>CD_M20260140607</t>
+  </si>
+  <si>
+    <t>CD_M20260140608</t>
+  </si>
+  <si>
+    <t>CD_M20260140609</t>
+  </si>
+  <si>
+    <t>CD_M20260140701</t>
+  </si>
+  <si>
+    <t>CD_M20260140702</t>
+  </si>
+  <si>
+    <t>CD_M20260140703</t>
+  </si>
+  <si>
+    <t>CD_M20260140704</t>
+  </si>
+  <si>
+    <t>CD_M20260140705</t>
+  </si>
+  <si>
+    <t>CD_M20260140706</t>
+  </si>
+  <si>
+    <t>CD_M20260140707</t>
+  </si>
+  <si>
+    <t>CD_M20260140708</t>
+  </si>
+  <si>
+    <t>CD_M20260140709</t>
+  </si>
+  <si>
+    <t>CD_M20260140801</t>
+  </si>
+  <si>
+    <t>CD_M20260140802</t>
+  </si>
+  <si>
+    <t>CD_M20260140803</t>
+  </si>
+  <si>
+    <t>CD_M20260140804</t>
+  </si>
+  <si>
+    <t>CD_M20260140805</t>
+  </si>
+  <si>
+    <t>CD_M20260140806</t>
+  </si>
+  <si>
+    <t>CD_M20260140807</t>
+  </si>
+  <si>
+    <t>CD_M20260140808</t>
+  </si>
+  <si>
+    <t>CD_M20260140809</t>
+  </si>
+  <si>
+    <t>CD_M20260140901</t>
+  </si>
+  <si>
+    <t>CD_M20260140902</t>
+  </si>
+  <si>
+    <t>CD_M20260140903</t>
+  </si>
+  <si>
+    <t>CD_M20260140904</t>
+  </si>
+  <si>
+    <t>CD_M20260140905</t>
+  </si>
+  <si>
+    <t>CD_M20260140906</t>
+  </si>
+  <si>
+    <t>CD_M20260140907</t>
+  </si>
+  <si>
+    <t>CD_M20260140908</t>
+  </si>
+  <si>
+    <t>CD_M20260140909</t>
+  </si>
+  <si>
+    <t>CD_M20260141001</t>
+  </si>
+  <si>
+    <t>CD_M20260141002</t>
+  </si>
+  <si>
+    <t>CD_M20260141003</t>
+  </si>
+  <si>
+    <t>CD_M20260141004</t>
+  </si>
+  <si>
+    <t>CD_M20260141005</t>
+  </si>
+  <si>
+    <t>CD_M20260141006</t>
+  </si>
+  <si>
+    <t>CD_M20260141007</t>
+  </si>
+  <si>
+    <t>CD_M20260141008</t>
+  </si>
+  <si>
+    <t>CD_M20260141009</t>
+  </si>
+  <si>
+    <t>CD_M20260141101</t>
+  </si>
+  <si>
+    <t>CD_M20260141102</t>
+  </si>
+  <si>
+    <t>CD_M20260141103</t>
+  </si>
+  <si>
+    <t>CD_M20260141104</t>
+  </si>
+  <si>
+    <t>CD_M20260141105</t>
+  </si>
+  <si>
+    <t>CD_M20260141106</t>
+  </si>
+  <si>
+    <t>CD_M20260141107</t>
+  </si>
+  <si>
+    <t>CD_M20260141108</t>
+  </si>
+  <si>
+    <t>CD_M20260141109</t>
+  </si>
+  <si>
+    <t>CD_M20260141201</t>
+  </si>
+  <si>
+    <t>CD_M20260141202</t>
+  </si>
+  <si>
+    <t>CD_M20260141203</t>
+  </si>
+  <si>
+    <t>CD_M20260141204</t>
+  </si>
+  <si>
+    <t>CD_M20260141205</t>
+  </si>
+  <si>
+    <t>CD_M20260141206</t>
+  </si>
+  <si>
+    <t>CD_M20260141207</t>
+  </si>
+  <si>
+    <t>CD_M20260141301</t>
+  </si>
+  <si>
+    <t>CD_M20260141302</t>
+  </si>
+  <si>
+    <t>CD_M20260141303</t>
+  </si>
+  <si>
+    <t>CD_M20260141304</t>
+  </si>
+  <si>
+    <t>CD_M20260141305</t>
+  </si>
+  <si>
+    <t>CD_M20260141306</t>
+  </si>
+  <si>
+    <t>CD_M20260141307</t>
+  </si>
+  <si>
+    <t>CD_M20260141308</t>
+  </si>
+  <si>
+    <t>CD_M20260141401</t>
+  </si>
+  <si>
+    <t>CD_M20260141402</t>
+  </si>
+  <si>
+    <t>CD_M20260141403</t>
+  </si>
+  <si>
+    <t>CD_M20260141404</t>
+  </si>
+  <si>
+    <t>CD_M20260141405</t>
+  </si>
+  <si>
+    <t>CD_M20260141406</t>
+  </si>
+  <si>
+    <t>CD_M20260141407</t>
+  </si>
+  <si>
+    <t>CD_M20260141501</t>
+  </si>
+  <si>
+    <t>CD_M20260141502</t>
+  </si>
+  <si>
+    <t>CD_M20260141503</t>
+  </si>
+  <si>
+    <t>CD_M20260141504</t>
+  </si>
+  <si>
+    <t>CD_M20260141505</t>
+  </si>
+  <si>
+    <t>CD_M20260141506</t>
+  </si>
+  <si>
+    <t>CD_M20260141507</t>
+  </si>
+  <si>
+    <t>CD_M20260141601</t>
+  </si>
+  <si>
+    <t>CD_M20260141602</t>
+  </si>
+  <si>
+    <t>CD_M20260141603</t>
+  </si>
+  <si>
+    <t>CD_M20260141605</t>
+  </si>
+  <si>
+    <t>CD_M20260141606</t>
+  </si>
+  <si>
+    <t>CD_M20260141607</t>
+  </si>
+  <si>
+    <t>CD_M20260141604</t>
+  </si>
+  <si>
+    <t>CD_M20260141701</t>
+  </si>
+  <si>
+    <t>CD_M20260141702</t>
+  </si>
+  <si>
+    <t>CD_M20260141703</t>
+  </si>
+  <si>
+    <t>CD_M20260141704</t>
+  </si>
+  <si>
+    <t>CD_M20260141705</t>
+  </si>
+  <si>
+    <t>CD_M20260141707</t>
+  </si>
+  <si>
+    <t>CD_M20260141708</t>
+  </si>
+  <si>
+    <t>CD_M20260141706</t>
+  </si>
+  <si>
+    <t>CD_M20260141709</t>
+  </si>
+  <si>
+    <t>CD_M20260141802</t>
+  </si>
+  <si>
+    <t>CD_M20260141803</t>
+  </si>
+  <si>
+    <t>CD_M20260141804</t>
+  </si>
+  <si>
+    <t>CD_M20260141806</t>
+  </si>
+  <si>
+    <t>CD_M20260141807</t>
+  </si>
+  <si>
+    <t>CD_M20260141808</t>
+  </si>
+  <si>
+    <t>CD_M20260141809</t>
+  </si>
+  <si>
+    <t>CD_M20260141801</t>
+  </si>
+  <si>
+    <t>CD_M20260141805</t>
+  </si>
+  <si>
+    <t>CD_M20260141901</t>
+  </si>
+  <si>
+    <t>CD_M20260141902</t>
+  </si>
+  <si>
+    <t>CD_M20260141903</t>
+  </si>
+  <si>
+    <t>CD_M20260141904</t>
+  </si>
+  <si>
+    <t>CD_M20260141905</t>
+  </si>
+  <si>
+    <t>CD_M20260141907</t>
+  </si>
+  <si>
+    <t>CD_M20260141908</t>
+  </si>
+  <si>
+    <t>CD_M20260141906</t>
+  </si>
+  <si>
+    <t>CD_M20260141909</t>
+  </si>
+  <si>
+    <t>CD_M20260142002</t>
+  </si>
+  <si>
+    <t>CD_M20260142003</t>
+  </si>
+  <si>
+    <t>CD_M20260142005</t>
+  </si>
+  <si>
+    <t>CD_M20260142006</t>
+  </si>
+  <si>
+    <t>CD_M20260142007</t>
+  </si>
+  <si>
+    <t>CD_M20260142008</t>
+  </si>
+  <si>
+    <t>CD_M20260142009</t>
+  </si>
+  <si>
+    <t>CD_M20260142001</t>
+  </si>
+  <si>
+    <t>CD_M20260142004</t>
+  </si>
+  <si>
+    <t>CD_M20260142101</t>
+  </si>
+  <si>
+    <t>CD_M20260142102</t>
+  </si>
+  <si>
+    <t>CD_M20260142103</t>
+  </si>
+  <si>
+    <t>CD_M20260142105</t>
+  </si>
+  <si>
+    <t>CD_M20260142106</t>
+  </si>
+  <si>
+    <t>CD_M20260142108</t>
+  </si>
+  <si>
+    <t>CD_M20260142109</t>
+  </si>
+  <si>
+    <t>CD_M20260142107</t>
+  </si>
+  <si>
+    <t>CD_M20260142104</t>
+  </si>
+  <si>
+    <t>CD_M20260142202</t>
+  </si>
+  <si>
+    <t>CD_M20260142203</t>
+  </si>
+  <si>
+    <t>CD_M20260142204</t>
+  </si>
+  <si>
+    <t>CD_M20260142205</t>
+  </si>
+  <si>
+    <t>CD_M20260142206</t>
+  </si>
+  <si>
+    <t>CD_M20260142207</t>
+  </si>
+  <si>
+    <t>CD_M20260142209</t>
+  </si>
+  <si>
+    <t>CD_M20260142201</t>
+  </si>
+  <si>
+    <t>CD_M20260142208</t>
+  </si>
+  <si>
+    <t>CD_M20260142301</t>
+  </si>
+  <si>
+    <t>CD_M20260142302</t>
+  </si>
+  <si>
+    <t>CD_M20260142304</t>
+  </si>
+  <si>
+    <t>CD_M20260142305</t>
+  </si>
+  <si>
+    <t>CD_M20260142306</t>
+  </si>
+  <si>
+    <t>CD_M20260142308</t>
+  </si>
+  <si>
+    <t>CD_M20260142309</t>
+  </si>
+  <si>
+    <t>CD_M20260142307</t>
+  </si>
+  <si>
+    <t>CD_M20260142303</t>
+  </si>
+  <si>
+    <t>CD_M20260142402</t>
+  </si>
+  <si>
+    <t>CD_M20260142403</t>
+  </si>
+  <si>
+    <t>CD_M20260142404</t>
+  </si>
+  <si>
+    <t>CD_M20260142405</t>
+  </si>
+  <si>
+    <t>CD_M20260142406</t>
+  </si>
+  <si>
+    <t>CD_M20260142407</t>
+  </si>
+  <si>
+    <t>CD_M20260142408</t>
+  </si>
+  <si>
+    <t>CD_M20260142401</t>
+  </si>
+  <si>
+    <t>CD_M20260142409</t>
+  </si>
+  <si>
+    <t>CD_M20261010101</t>
+  </si>
+  <si>
+    <t>CD_M20261010102</t>
+  </si>
+  <si>
+    <t>CD_M20261010103</t>
+  </si>
+  <si>
+    <t>CD_M20261010104</t>
+  </si>
+  <si>
+    <t>CD_M20261010105</t>
+  </si>
+  <si>
+    <t>CD_M20261010106</t>
+  </si>
+  <si>
+    <t>CD_M20261010107</t>
+  </si>
+  <si>
+    <t>CD_M20261010108</t>
+  </si>
+  <si>
+    <t>CD_M20261010109</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B02A0-21B2-418E-97BD-054996A22EC7}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,380 +2405,380 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>404</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>409</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="H4" t="s">
-        <v>404</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>413</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="H6" t="s">
-        <v>406</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>417</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>409</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="H10" t="s">
-        <v>410</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -2688,934 +2787,934 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H35" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H46" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H49" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H50" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="F51" t="s">
         <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="H51" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
         <v>81</v>
@@ -3624,258 +3723,258 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H52" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F54" t="s">
         <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="H58" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H59" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
         <v>49</v>
@@ -3884,362 +3983,362 @@
         <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H62" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
         <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H63" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="H64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H65" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H66" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H67" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
         <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H68" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
         <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H72" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H73" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H74" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H75" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
         <v>81</v>
@@ -4248,674 +4347,674 @@
         <v>185</v>
       </c>
       <c r="G76" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H76" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H77" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s">
         <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H78" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H79" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H80" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G81" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H81" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H82" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H83" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H84" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
         <v>185</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H85" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
         <v>50</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
         <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G88" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H88" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H89" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H90" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="G91" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H91" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H92" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H93" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="F94" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H94" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
         <v>50</v>
       </c>
       <c r="G95" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H95" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H96" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H97" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G98" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H99" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D100" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F100" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="G100" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H100" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H101" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E102" t="s">
         <v>34</v>
@@ -4924,2533 +5023,2771 @@
         <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H102" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H103" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="H104" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H105" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E106" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="G106" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H107" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G108" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H108" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H109" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="H110" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H111" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E112" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H112" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H113" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H114" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="F115" t="s">
         <v>69</v>
       </c>
       <c r="G115" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H115" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H116" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H117" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E118" t="s">
         <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H118" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C119" t="s">
         <v>63</v>
       </c>
       <c r="D119" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="G119" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H119" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C120" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="G120" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H120" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E121" t="s">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c r="F121" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="G121" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H121" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
         <v>69</v>
       </c>
       <c r="G122" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H122" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="H123" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G124" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H124" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E125" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H125" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="H126" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E127" t="s">
         <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H127" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G128" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="H128" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H129" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D130" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E130" t="s">
-        <v>298</v>
+        <v>281</v>
+      </c>
+      <c r="F130" t="s">
+        <v>65</v>
       </c>
       <c r="G130" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H130" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E131" t="s">
         <v>49</v>
       </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
       <c r="G131" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="H131" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>90</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H132" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>301</v>
+        <v>17</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H133" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D134" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E134" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="F134" t="s">
+        <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="H134" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>24</v>
       </c>
       <c r="G135" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="H135" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D136" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s">
-        <v>306</v>
+        <v>34</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H136" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="F137" t="s">
+        <v>65</v>
       </c>
       <c r="G137" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H137" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C138" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>311</v>
+        <v>49</v>
+      </c>
+      <c r="F138" t="s">
+        <v>69</v>
       </c>
       <c r="G138" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="H138" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E139" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G139" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H139" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B140" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E140" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="G140" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H140" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D141" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E141" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="G141" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H141" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E142" t="s">
         <v>301</v>
       </c>
       <c r="G142" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H142" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E143" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="G143" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="H143" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s">
         <v>93</v>
       </c>
       <c r="D144" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E144" t="s">
         <v>81</v>
       </c>
       <c r="G144" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="H144" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D145" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E145" t="s">
         <v>306</v>
       </c>
       <c r="G145" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="H145" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E146" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="G146" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H146" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G147" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H147" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="G148" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H148" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E149" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="G149" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H149" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E150" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G150" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H150" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D151" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="G151" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H151" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="G152" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H152" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C153" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E153" t="s">
         <v>81</v>
       </c>
       <c r="G153" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H153" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C154" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D154" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E154" t="s">
         <v>306</v>
       </c>
       <c r="G154" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H154" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B155" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C155" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G155" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H155" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="G156" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H156" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="G157" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H157" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G158" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H158" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B159" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C159" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D159" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="G159" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H159" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C160" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="G160" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H160" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B161" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D161" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="G161" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H161" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C162" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D162" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E162" t="s">
         <v>81</v>
       </c>
       <c r="G162" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H162" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C163" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D163" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E163" t="s">
         <v>306</v>
       </c>
       <c r="G163" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H163" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G164" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H164" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E165" t="s">
         <v>49</v>
       </c>
       <c r="G165" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H165" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B166" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D166" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E166" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G166" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H166" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C167" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G167" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H167" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C168" t="s">
         <v>63</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E168" t="s">
         <v>49</v>
       </c>
       <c r="G168" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H168" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
         <v>301</v>
       </c>
       <c r="G169" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="G170" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H170" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E171" t="s">
         <v>81</v>
       </c>
       <c r="G171" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B172" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E172" t="s">
         <v>306</v>
       </c>
       <c r="G172" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H172" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="G173" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="G174" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="H174" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="G175" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H175" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D176" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G176" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H176" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B177" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C177" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E177" t="s">
-        <v>316</v>
+        <v>49</v>
       </c>
       <c r="G177" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H177" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C178" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D178" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E178" t="s">
         <v>301</v>
       </c>
       <c r="G178" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H178" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E179" t="s">
         <v>49</v>
       </c>
       <c r="G179" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C180" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D180" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E180" t="s">
         <v>81</v>
       </c>
       <c r="G180" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H180" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C181" t="s">
         <v>88</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E181" t="s">
         <v>306</v>
       </c>
       <c r="G181" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H181" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E182" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H182" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D183" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G183" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H183" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E184" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="G184" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H184" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C185" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E185" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G185" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H185" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="G186" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H186" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E187" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G187" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H187" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D188" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E188" t="s">
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H188" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B189" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C189" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D189" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E189" t="s">
         <v>81</v>
       </c>
       <c r="G189" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H189" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C190" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D190" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s">
         <v>306</v>
       </c>
       <c r="G190" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H190" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
         <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E191" t="s">
         <v>298</v>
       </c>
       <c r="G191" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H191" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E192" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G192" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H192" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C193" t="s">
         <v>21</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E193" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="G193" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H193" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C194" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D194" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E194" t="s">
         <v>301</v>
       </c>
       <c r="G194" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H194" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C195" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H195" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C196" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E196" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G196" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H196" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B197" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C197" t="s">
         <v>47</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E197" t="s">
         <v>49</v>
       </c>
       <c r="G197" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H197" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C198" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D198" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E198" t="s">
         <v>81</v>
       </c>
       <c r="G198" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="H198" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C199" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E199" t="s">
         <v>306</v>
       </c>
       <c r="G199" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H199" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B200" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C200" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E200" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G200" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H200" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D201" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="G201" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H201" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B202" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E202" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="G202" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H202" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B203" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E203" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G203" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H203" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B204" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C204" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="G204" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H204" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B205" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C205" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="G205" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H205" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="G206" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H206" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B207" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C207" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D207" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E207" t="s">
         <v>81</v>
       </c>
       <c r="G207" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H207" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B208" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C208" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D208" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E208" t="s">
         <v>306</v>
       </c>
       <c r="G208" t="s">
+        <v>389</v>
+      </c>
+      <c r="H208" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>390</v>
+      </c>
+      <c r="B209" t="s">
+        <v>391</v>
+      </c>
+      <c r="C209" t="s">
+        <v>59</v>
+      </c>
+      <c r="D209" t="s">
+        <v>56</v>
+      </c>
+      <c r="E209" t="s">
+        <v>301</v>
+      </c>
+      <c r="G209" t="s">
+        <v>392</v>
+      </c>
+      <c r="H209" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>390</v>
+      </c>
+      <c r="B210" t="s">
+        <v>391</v>
+      </c>
+      <c r="C210" t="s">
+        <v>39</v>
+      </c>
+      <c r="D210" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" t="s">
+        <v>49</v>
+      </c>
+      <c r="G210" t="s">
+        <v>393</v>
+      </c>
+      <c r="H210" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" t="s">
+        <v>391</v>
+      </c>
+      <c r="C211" t="s">
+        <v>43</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" t="s">
+        <v>49</v>
+      </c>
+      <c r="G211" t="s">
+        <v>394</v>
+      </c>
+      <c r="H211" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>390</v>
+      </c>
+      <c r="B212" t="s">
+        <v>391</v>
+      </c>
+      <c r="C212" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" t="s">
+        <v>311</v>
+      </c>
+      <c r="G212" t="s">
+        <v>395</v>
+      </c>
+      <c r="H212" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>390</v>
+      </c>
+      <c r="B213" t="s">
+        <v>391</v>
+      </c>
+      <c r="C213" t="s">
+        <v>67</v>
+      </c>
+      <c r="D213" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" t="s">
+        <v>301</v>
+      </c>
+      <c r="G213" t="s">
+        <v>396</v>
+      </c>
+      <c r="H213" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>390</v>
+      </c>
+      <c r="B214" t="s">
+        <v>391</v>
+      </c>
+      <c r="C214" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" t="s">
+        <v>85</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="G214" t="s">
+        <v>397</v>
+      </c>
+      <c r="H214" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>390</v>
+      </c>
+      <c r="B215" t="s">
+        <v>391</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" t="s">
+        <v>97</v>
+      </c>
+      <c r="E215" t="s">
+        <v>319</v>
+      </c>
+      <c r="G215" t="s">
+        <v>398</v>
+      </c>
+      <c r="H215" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>390</v>
+      </c>
+      <c r="B216" t="s">
+        <v>391</v>
+      </c>
+      <c r="C216" t="s">
+        <v>80</v>
+      </c>
+      <c r="D216" t="s">
+        <v>48</v>
+      </c>
+      <c r="E216" t="s">
+        <v>81</v>
+      </c>
+      <c r="G216" t="s">
+        <v>399</v>
+      </c>
+      <c r="H216" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>390</v>
+      </c>
+      <c r="B217" t="s">
+        <v>391</v>
+      </c>
+      <c r="C217" t="s">
+        <v>96</v>
+      </c>
+      <c r="D217" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" t="s">
+        <v>306</v>
+      </c>
+      <c r="G217" t="s">
         <v>400</v>
       </c>
-      <c r="H208" t="s">
-        <v>608</v>
+      <c r="H217" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G10">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/assets/assets/afl_fixtures_2026.xlsx
+++ b/docs/assets/assets/afl_fixtures_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterProjects\my_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E659E46-91D1-42A9-AE42-8763BF061A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53503270-74A2-439E-875B-25397A6A1453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="25905" windowHeight="20760" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
+    <workbookView xWindow="2340" yWindow="240" windowWidth="25905" windowHeight="20760" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2363,7 +2363,7 @@
   <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2374,7 @@
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/assets/assets/afl_fixtures_2026.xlsx
+++ b/docs/assets/assets/afl_fixtures_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterProjects\my_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53503270-74A2-439E-875B-25397A6A1453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC17BC-72F1-42A1-965D-5D66204FB796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="240" windowWidth="25905" windowHeight="20760" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
+    <workbookView xWindow="22725" yWindow="1995" windowWidth="24465" windowHeight="12120" xr2:uid="{FAFE0CD9-9BC2-49F0-B524-DEB3075BE8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="643">
   <si>
     <t>ROUND</t>
   </si>
@@ -1962,6 +1962,9 @@
   </si>
   <si>
     <t>CD_M20261010109</t>
+  </si>
+  <si>
+    <t>SEASON</t>
   </si>
 </sst>
 </file>
@@ -2360,5431 +2363,6082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B02A0-21B2-418E-97BD-054996A22EC7}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2026</v>
+      </c>
+      <c r="B2" t="s">
         <v>425</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>402</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>403</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>404</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2026</v>
+      </c>
+      <c r="B3" t="s">
         <v>425</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>405</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>406</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>407</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>408</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2026</v>
+      </c>
+      <c r="B4" t="s">
         <v>425</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>409</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>410</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2026</v>
+      </c>
+      <c r="B5" t="s">
         <v>425</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>411</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>412</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>407</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>413</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2026</v>
+      </c>
+      <c r="B6" t="s">
         <v>425</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>411</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>414</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>415</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2026</v>
+      </c>
+      <c r="B7" t="s">
         <v>425</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>416</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>412</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>417</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>418</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="s">
         <v>425</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>416</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>419</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>420</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2026</v>
+      </c>
+      <c r="B9" t="s">
         <v>425</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>421</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>412</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>417</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>422</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2026</v>
+      </c>
+      <c r="B10" t="s">
         <v>425</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>421</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>423</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>424</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2026</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2026</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2026</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2026</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2026</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2026</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2026</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2026</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2026</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>66</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2026</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2026</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>72</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>78</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2026</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2026</v>
+      </c>
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>85</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>86</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2026</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>87</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2026</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>91</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2026</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>95</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2026</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>97</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>90</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>72</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>98</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2026</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>100</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>54</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>101</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2026</v>
+      </c>
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>49</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>44</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>103</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2026</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>49</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>105</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>106</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2026</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>90</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>107</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2026</v>
+      </c>
+      <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>97</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>49</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>108</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2026</v>
+      </c>
+      <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>81</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>110</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>111</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2026</v>
+      </c>
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>89</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>112</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2026</v>
+      </c>
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>28</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>115</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2026</v>
+      </c>
+      <c r="B40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>49</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>117</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>116</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>118</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>119</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2026</v>
+      </c>
+      <c r="B42" t="s">
         <v>113</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>120</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>64</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>24</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>121</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2026</v>
+      </c>
+      <c r="B43" t="s">
         <v>113</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>29</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>122</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2026</v>
+      </c>
+      <c r="B44" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>85</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>124</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2026</v>
+      </c>
+      <c r="B45" t="s">
         <v>113</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>123</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>94</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>49</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>125</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2026</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>126</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>34</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>69</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>127</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2026</v>
+      </c>
+      <c r="B47" t="s">
         <v>128</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>129</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>81</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>130</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2026</v>
+      </c>
+      <c r="B48" t="s">
         <v>128</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>131</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>59</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>53</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>81</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>44</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>132</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2026</v>
+      </c>
+      <c r="B49" t="s">
         <v>128</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>133</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>63</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>56</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>134</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>105</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>135</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2026</v>
+      </c>
+      <c r="B50" t="s">
         <v>128</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>133</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>43</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>89</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>81</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>50</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>136</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2026</v>
+      </c>
+      <c r="B51" t="s">
         <v>128</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>133</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>85</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>137</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>24</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>138</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2026</v>
+      </c>
+      <c r="B52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>133</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>76</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>27</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>81</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>29</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>139</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2026</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>140</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>71</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>137</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>110</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>141</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2026</v>
+      </c>
+      <c r="B54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>140</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>134</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>69</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>142</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2026</v>
+      </c>
+      <c r="B55" t="s">
         <v>128</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>140</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>81</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>118</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>143</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2026</v>
+      </c>
+      <c r="B56" t="s">
         <v>144</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>145</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>39</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>33</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>34</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>12</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>146</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2026</v>
+      </c>
+      <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>147</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>54</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>35</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>148</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2026</v>
+      </c>
+      <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>21</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>149</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>150</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2026</v>
+      </c>
+      <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>151</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>94</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>50</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>152</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2026</v>
+      </c>
+      <c r="B60" t="s">
         <v>144</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>151</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>64</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>49</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>24</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>153</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2026</v>
+      </c>
+      <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>151</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>80</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>68</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>81</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>29</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>154</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2026</v>
+      </c>
+      <c r="B62" t="s">
         <v>144</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>40</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>49</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>65</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>156</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2026</v>
+      </c>
+      <c r="B63" t="s">
         <v>144</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>155</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>34</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>69</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>157</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2026</v>
+      </c>
+      <c r="B64" t="s">
         <v>144</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>96</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>53</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>90</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>158</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>159</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2026</v>
+      </c>
+      <c r="B65" t="s">
         <v>160</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>77</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>49</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>12</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>162</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2026</v>
+      </c>
+      <c r="B66" t="s">
         <v>160</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>163</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>84</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>89</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>34</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>44</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>164</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2026</v>
+      </c>
+      <c r="B67" t="s">
         <v>160</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>165</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>76</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>85</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>166</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>167</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>168</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2026</v>
+      </c>
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>165</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>43</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>33</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>34</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>69</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>169</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2026</v>
+      </c>
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>165</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>16</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>81</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>170</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>171</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2026</v>
+      </c>
+      <c r="B70" t="s">
         <v>160</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>165</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>88</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>10</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>90</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>172</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>173</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2026</v>
+      </c>
+      <c r="B71" t="s">
         <v>160</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>174</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>32</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>71</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>49</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>65</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>175</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2026</v>
+      </c>
+      <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>174</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>26</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>60</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>28</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>69</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>176</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2026</v>
+      </c>
+      <c r="B73" t="s">
         <v>160</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>174</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>21</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>97</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>177</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>178</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>179</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2026</v>
+      </c>
+      <c r="B74" t="s">
         <v>180</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>181</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>59</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>22</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>34</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>12</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>182</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2026</v>
+      </c>
+      <c r="B75" t="s">
         <v>180</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>183</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>47</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>53</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>49</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>35</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>184</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2026</v>
+      </c>
+      <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>183</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>64</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>81</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>185</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>186</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2026</v>
+      </c>
+      <c r="B77" t="s">
         <v>180</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>187</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>43</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>56</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>49</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>105</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2026</v>
+      </c>
+      <c r="B78" t="s">
         <v>180</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>187</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>96</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>40</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>90</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>24</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>189</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2026</v>
+      </c>
+      <c r="B79" t="s">
         <v>180</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>187</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>52</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>97</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>54</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>190</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>191</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2026</v>
+      </c>
+      <c r="B80" t="s">
         <v>180</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>187</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>39</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>68</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>49</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>29</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>192</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2026</v>
+      </c>
+      <c r="B81" t="s">
         <v>180</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>193</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>89</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>69</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>194</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2026</v>
+      </c>
+      <c r="B82" t="s">
         <v>180</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>193</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>48</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>35</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>195</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2026</v>
+      </c>
+      <c r="B83" t="s">
         <v>196</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>197</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>88</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>22</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>90</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>185</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>198</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2026</v>
+      </c>
+      <c r="B84" t="s">
         <v>196</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>199</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>26</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>10</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>28</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>200</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2026</v>
+      </c>
+      <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>199</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>93</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>81</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>185</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>201</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2026</v>
+      </c>
+      <c r="B86" t="s">
         <v>196</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>202</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>63</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>77</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>49</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>50</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>203</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2026</v>
+      </c>
+      <c r="B87" t="s">
         <v>196</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>202</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>21</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>94</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>23</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>24</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>204</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2026</v>
+      </c>
+      <c r="B88" t="s">
         <v>196</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>202</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>15</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>68</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>205</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>57</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>206</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2026</v>
+      </c>
+      <c r="B89" t="s">
         <v>196</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>202</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>52</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>33</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>34</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>29</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>207</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2026</v>
+      </c>
+      <c r="B90" t="s">
         <v>196</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>208</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>67</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>71</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>49</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>65</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>209</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2026</v>
+      </c>
+      <c r="B91" t="s">
         <v>196</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>208</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>84</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>60</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>34</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>69</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>210</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2026</v>
+      </c>
+      <c r="B92" t="s">
         <v>211</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>212</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>26</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>16</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>28</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>12</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>213</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="s">
         <v>211</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>214</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>33</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>12</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>215</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="s">
         <v>211</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>214</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>64</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>205</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>185</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>216</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="s">
         <v>211</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>217</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>80</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>97</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>81</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>50</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>218</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="s">
         <v>211</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>217</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>67</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>22</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>34</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>24</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>219</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="s">
         <v>211</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>217</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>39</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>27</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>49</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>29</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>220</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="s">
         <v>211</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>221</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>43</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>53</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>34</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>65</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>222</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="s">
         <v>211</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>221</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>32</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>40</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>49</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>69</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>223</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="s">
         <v>211</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>221</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>96</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>48</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>90</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>224</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>225</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2026</v>
+      </c>
+      <c r="B101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>227</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>76</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>60</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>166</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>12</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>228</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2026</v>
+      </c>
+      <c r="B102" t="s">
         <v>226</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>229</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>84</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>94</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>34</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>44</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>230</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2026</v>
+      </c>
+      <c r="B103" t="s">
         <v>226</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>229</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>88</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>68</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>90</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>231</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>232</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2026</v>
+      </c>
+      <c r="B104" t="s">
         <v>226</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>233</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>63</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>85</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>49</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>50</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>234</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2026</v>
+      </c>
+      <c r="B105" t="s">
         <v>226</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>233</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>52</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>77</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>54</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>24</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>235</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2026</v>
+      </c>
+      <c r="B106" t="s">
         <v>226</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>233</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>59</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>71</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>34</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>190</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>236</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2026</v>
+      </c>
+      <c r="B107" t="s">
         <v>226</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>233</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>93</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>81</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>29</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>237</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2026</v>
+      </c>
+      <c r="B108" t="s">
         <v>226</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>238</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>21</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>56</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>23</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>110</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>239</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2026</v>
+      </c>
+      <c r="B109" t="s">
         <v>226</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>238</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>47</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>89</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>49</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>69</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>240</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2026</v>
+      </c>
+      <c r="B110" t="s">
         <v>241</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>242</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>32</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>22</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>49</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>12</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>243</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2026</v>
+      </c>
+      <c r="B111" t="s">
         <v>241</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>244</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>39</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>16</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>34</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>44</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>245</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2026</v>
+      </c>
+      <c r="B112" t="s">
         <v>241</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>246</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>9</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>40</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>50</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>247</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2026</v>
+      </c>
+      <c r="B113" t="s">
         <v>241</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>246</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>26</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>53</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>28</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>24</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>248</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2026</v>
+      </c>
+      <c r="B114" t="s">
         <v>241</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>246</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>47</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>33</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>49</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>29</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>249</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2026</v>
+      </c>
+      <c r="B115" t="s">
         <v>241</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>250</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>67</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>48</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>251</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>69</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>252</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2026</v>
+      </c>
+      <c r="B116" t="s">
         <v>241</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>250</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>96</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>94</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>90</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>35</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>253</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2026</v>
+      </c>
+      <c r="B117" t="s">
         <v>254</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>255</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>80</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>16</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>81</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>12</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>256</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2026</v>
+      </c>
+      <c r="B118" t="s">
         <v>254</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>257</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>76</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>27</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>34</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>44</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>258</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2026</v>
+      </c>
+      <c r="B119" t="s">
         <v>254</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>259</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>63</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>53</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>260</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>261</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>262</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2026</v>
+      </c>
+      <c r="B120" t="s">
         <v>254</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>259</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>56</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>17</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>263</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>264</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2026</v>
+      </c>
+      <c r="B121" t="s">
         <v>254</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>259</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>96</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>64</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>90</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>172</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>265</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2026</v>
+      </c>
+      <c r="B122" t="s">
         <v>254</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>266</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>68</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>69</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>267</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2026</v>
+      </c>
+      <c r="B123" t="s">
         <v>254</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>266</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>43</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>10</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>34</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>35</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>268</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2026</v>
+      </c>
+      <c r="B124" t="s">
         <v>254</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>269</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>59</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>89</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>34</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>69</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>270</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2026</v>
+      </c>
+      <c r="B125" t="s">
         <v>271</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>272</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>47</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>60</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>49</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>12</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>273</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2026</v>
+      </c>
+      <c r="B126" t="s">
         <v>271</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>274</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>52</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>85</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>54</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>44</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>275</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2026</v>
+      </c>
+      <c r="B127" t="s">
         <v>271</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>276</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>67</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>94</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>34</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>50</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>277</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2026</v>
+      </c>
+      <c r="B128" t="s">
         <v>271</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>276</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>63</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>71</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>90</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>24</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>278</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2026</v>
+      </c>
+      <c r="B129" t="s">
         <v>271</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>276</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>93</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>77</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>81</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>29</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>279</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2026</v>
+      </c>
+      <c r="B130" t="s">
         <v>271</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>280</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>84</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>56</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>281</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>65</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>282</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2026</v>
+      </c>
+      <c r="B131" t="s">
         <v>271</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>280</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>32</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>48</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>49</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>69</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>283</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2026</v>
+      </c>
+      <c r="B132" t="s">
         <v>284</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>285</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>88</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>16</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>90</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>12</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>286</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2026</v>
+      </c>
+      <c r="B133" t="s">
         <v>284</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>287</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>15</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>22</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>17</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>44</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>288</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2026</v>
+      </c>
+      <c r="B134" t="s">
         <v>284</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>289</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>80</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>89</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>81</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>50</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>290</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2026</v>
+      </c>
+      <c r="B135" t="s">
         <v>284</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>289</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>21</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>10</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>23</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>24</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>291</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2026</v>
+      </c>
+      <c r="B136" t="s">
         <v>284</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>289</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>59</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>64</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>34</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>29</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>292</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2026</v>
+      </c>
+      <c r="B137" t="s">
         <v>284</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>293</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>84</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>97</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>34</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>65</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>294</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2026</v>
+      </c>
+      <c r="B138" t="s">
         <v>284</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>293</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>32</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>27</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>49</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>69</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>295</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2026</v>
+      </c>
+      <c r="B139" t="s">
         <v>296</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>297</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>26</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>77</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>298</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>299</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2026</v>
+      </c>
+      <c r="B140" t="s">
         <v>296</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>297</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>39</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>71</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>49</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>300</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2026</v>
+      </c>
+      <c r="B141" t="s">
         <v>296</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>297</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>59</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>40</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>301</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>302</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2026</v>
+      </c>
+      <c r="B142" t="s">
         <v>296</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>297</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>76</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>48</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>301</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>303</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2026</v>
+      </c>
+      <c r="B143" t="s">
         <v>296</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>297</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>63</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>94</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>49</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>304</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2026</v>
+      </c>
+      <c r="B144" t="s">
         <v>296</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>297</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>93</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>60</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>81</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>305</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2026</v>
+      </c>
+      <c r="B145" t="s">
         <v>296</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>297</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>88</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>85</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>306</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>307</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2026</v>
+      </c>
+      <c r="B146" t="s">
         <v>308</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>309</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>43</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>68</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>49</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>310</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2026</v>
+      </c>
+      <c r="B147" t="s">
         <v>308</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>309</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>52</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>56</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>311</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>312</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2026</v>
+      </c>
+      <c r="B148" t="s">
         <v>308</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>309</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>15</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>33</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>313</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>314</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2026</v>
+      </c>
+      <c r="B149" t="s">
         <v>308</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>309</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>21</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>53</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>177</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>315</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2026</v>
+      </c>
+      <c r="B150" t="s">
         <v>308</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>309</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>76</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>89</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>316</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>317</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2026</v>
+      </c>
+      <c r="B151" t="s">
         <v>308</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>309</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>84</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>10</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>301</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>318</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2026</v>
+      </c>
+      <c r="B152" t="s">
         <v>308</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>309</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>9</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>27</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>319</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>320</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2026</v>
+      </c>
+      <c r="B153" t="s">
         <v>308</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>309</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>93</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>97</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>81</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>321</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2026</v>
+      </c>
+      <c r="B154" t="s">
         <v>308</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>309</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>96</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>60</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>306</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>322</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2026</v>
+      </c>
+      <c r="B155" t="s">
         <v>323</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>324</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>26</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>94</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>298</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>325</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2026</v>
+      </c>
+      <c r="B156" t="s">
         <v>323</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>324</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>39</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>22</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>301</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>326</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2026</v>
+      </c>
+      <c r="B157" t="s">
         <v>323</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>324</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>59</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>97</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>49</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>327</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2026</v>
+      </c>
+      <c r="B158" t="s">
         <v>323</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>324</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>21</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>16</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>328</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>329</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2026</v>
+      </c>
+      <c r="B159" t="s">
         <v>323</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>324</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>67</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>40</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>301</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>330</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2026</v>
+      </c>
+      <c r="B160" t="s">
         <v>323</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>324</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>32</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>64</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>49</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>331</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2026</v>
+      </c>
+      <c r="B161" t="s">
         <v>323</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>324</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>47</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>71</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>49</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>332</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2026</v>
+      </c>
+      <c r="B162" t="s">
         <v>323</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>324</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>80</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>85</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>81</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>333</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2026</v>
+      </c>
+      <c r="B163" t="s">
         <v>323</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>324</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>88</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>77</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>306</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>334</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2026</v>
+      </c>
+      <c r="B164" t="s">
         <v>335</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>336</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>59</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>10</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>301</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>337</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2026</v>
+      </c>
+      <c r="B165" t="s">
         <v>335</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>336</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>43</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>48</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>49</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>338</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2026</v>
+      </c>
+      <c r="B166" t="s">
         <v>335</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>336</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>52</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>68</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>311</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>339</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2026</v>
+      </c>
+      <c r="B167" t="s">
         <v>335</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>336</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>15</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>27</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>313</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>340</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2026</v>
+      </c>
+      <c r="B168" t="s">
         <v>335</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>336</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>63</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>89</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>49</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>341</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2026</v>
+      </c>
+      <c r="B169" t="s">
         <v>335</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>336</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>84</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>22</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>301</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>342</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2026</v>
+      </c>
+      <c r="B170" t="s">
         <v>335</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>336</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>9</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>60</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>319</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>343</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2026</v>
+      </c>
+      <c r="B171" t="s">
         <v>335</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>336</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>93</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>53</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>81</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>344</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2026</v>
+      </c>
+      <c r="B172" t="s">
         <v>335</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>336</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>96</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>56</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>306</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>345</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2026</v>
+      </c>
+      <c r="B173" t="s">
         <v>346</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>347</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>26</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>64</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>298</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>348</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2026</v>
+      </c>
+      <c r="B174" t="s">
         <v>346</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>347</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>39</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>85</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>49</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>349</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2026</v>
+      </c>
+      <c r="B175" t="s">
         <v>346</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>347</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>21</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>77</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>328</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>350</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2026</v>
+      </c>
+      <c r="B176" t="s">
         <v>346</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>347</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>76</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>94</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>301</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>351</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2026</v>
+      </c>
+      <c r="B177" t="s">
         <v>346</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>347</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>63</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>68</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>49</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>352</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2026</v>
+      </c>
+      <c r="B178" t="s">
         <v>346</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>347</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>67</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>16</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>301</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>353</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2026</v>
+      </c>
+      <c r="B179" t="s">
         <v>346</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>347</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>47</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>40</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>49</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>354</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2026</v>
+      </c>
+      <c r="B180" t="s">
         <v>346</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>347</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>80</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>33</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>81</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>355</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2026</v>
+      </c>
+      <c r="B181" t="s">
         <v>346</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>347</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>88</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>71</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>306</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>356</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2026</v>
+      </c>
+      <c r="B182" t="s">
         <v>357</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>358</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>39</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>56</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>49</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>359</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2026</v>
+      </c>
+      <c r="B183" t="s">
         <v>357</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>358</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>59</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>16</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>301</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>360</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2026</v>
+      </c>
+      <c r="B184" t="s">
         <v>357</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>358</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>43</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>60</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>49</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>361</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2026</v>
+      </c>
+      <c r="B185" t="s">
         <v>357</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>358</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>15</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>89</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>313</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>362</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2026</v>
+      </c>
+      <c r="B186" t="s">
         <v>357</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>358</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>76</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>97</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>316</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>363</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2026</v>
+      </c>
+      <c r="B187" t="s">
         <v>357</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>358</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>84</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>71</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>301</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>364</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2026</v>
+      </c>
+      <c r="B188" t="s">
         <v>357</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>358</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>32</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>77</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>49</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>365</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2026</v>
+      </c>
+      <c r="B189" t="s">
         <v>357</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>358</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>93</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>48</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>81</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>366</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2026</v>
+      </c>
+      <c r="B190" t="s">
         <v>357</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>358</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>88</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>27</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>306</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>367</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2026</v>
+      </c>
+      <c r="B191" t="s">
         <v>368</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>369</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>26</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>22</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>298</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>370</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2026</v>
+      </c>
+      <c r="B192" t="s">
         <v>368</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>369</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>52</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>94</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>311</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>371</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2026</v>
+      </c>
+      <c r="B193" t="s">
         <v>368</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>369</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>21</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>85</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>177</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>372</v>
       </c>
-      <c r="H193" t="s">
+      <c r="I193" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2026</v>
+      </c>
+      <c r="B194" t="s">
         <v>368</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>369</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>67</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>53</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>301</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>373</v>
       </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2026</v>
+      </c>
+      <c r="B195" t="s">
         <v>368</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>369</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>32</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>10</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>49</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>374</v>
       </c>
-      <c r="H195" t="s">
+      <c r="I195" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2026</v>
+      </c>
+      <c r="B196" t="s">
         <v>368</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>369</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>9</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>64</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>319</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>375</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2026</v>
+      </c>
+      <c r="B197" t="s">
         <v>368</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>369</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>47</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>97</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>49</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>376</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2026</v>
+      </c>
+      <c r="B198" t="s">
         <v>368</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>369</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>80</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>40</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>81</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>377</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2026</v>
+      </c>
+      <c r="B199" t="s">
         <v>368</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>369</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>96</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>33</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>306</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>378</v>
       </c>
-      <c r="H199" t="s">
+      <c r="I199" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2026</v>
+      </c>
+      <c r="B200" t="s">
         <v>379</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>380</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>26</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>85</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>298</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>381</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2026</v>
+      </c>
+      <c r="B201" t="s">
         <v>379</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>380</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>43</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>77</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>301</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>382</v>
       </c>
-      <c r="H201" t="s">
+      <c r="I201" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2026</v>
+      </c>
+      <c r="B202" t="s">
         <v>379</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>380</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>21</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>71</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>328</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>383</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2026</v>
+      </c>
+      <c r="B203" t="s">
         <v>379</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>380</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>76</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>33</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>301</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>384</v>
       </c>
-      <c r="H203" t="s">
+      <c r="I203" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2026</v>
+      </c>
+      <c r="B204" t="s">
         <v>379</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>380</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>63</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>16</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>49</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>385</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I204" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2026</v>
+      </c>
+      <c r="B205" t="s">
         <v>379</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>380</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>84</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>68</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>301</v>
       </c>
-      <c r="G205" t="s">
+      <c r="H205" t="s">
         <v>386</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2026</v>
+      </c>
+      <c r="B206" t="s">
         <v>379</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>380</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>47</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>10</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>49</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>387</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I206" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2026</v>
+      </c>
+      <c r="B207" t="s">
         <v>379</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>380</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>93</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>89</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>81</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>388</v>
       </c>
-      <c r="H207" t="s">
+      <c r="I207" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2026</v>
+      </c>
+      <c r="B208" t="s">
         <v>379</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>380</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>88</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>60</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>306</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>389</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2026</v>
+      </c>
+      <c r="B209" t="s">
         <v>390</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>391</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>59</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>56</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>301</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>392</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2026</v>
+      </c>
+      <c r="B210" t="s">
         <v>390</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>391</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>39</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>53</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>49</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>393</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2026</v>
+      </c>
+      <c r="B211" t="s">
         <v>390</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>391</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>43</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>64</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>49</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>394</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2026</v>
+      </c>
+      <c r="B212" t="s">
         <v>390</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>391</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>52</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>40</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>311</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>395</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2026</v>
+      </c>
+      <c r="B213" t="s">
         <v>390</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>391</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>67</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>27</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>301</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>396</v>
       </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2026</v>
+      </c>
+      <c r="B214" t="s">
         <v>390</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>391</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>32</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>85</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>49</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>397</v>
       </c>
-      <c r="H214" t="s">
+      <c r="I214" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2026</v>
+      </c>
+      <c r="B215" t="s">
         <v>390</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>391</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>9</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>97</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>319</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>398</v>
       </c>
-      <c r="H215" t="s">
+      <c r="I215" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2026</v>
+      </c>
+      <c r="B216" t="s">
         <v>390</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>391</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>80</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>48</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>81</v>
       </c>
-      <c r="G216" t="s">
+      <c r="H216" t="s">
         <v>399</v>
       </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2026</v>
+      </c>
+      <c r="B217" t="s">
         <v>390</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>391</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>96</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>22</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>306</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>400</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>632</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G10">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
